--- a/data/trans_bre/IP16A01-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/IP16A01-Habitat-trans_bre.xlsx
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>Menos de 2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -625,17 +625,17 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>4,83</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-6,39</t>
+          <t>-15,36</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-0,62</t>
+          <t>-49,46</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -645,17 +645,17 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>8,66%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-9,92%</t>
+          <t>-21,29%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-1,09%</t>
+          <t>-57,43%</t>
         </is>
       </c>
     </row>
@@ -673,17 +673,17 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-14,99; 22,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-22,72; 10,46</t>
+          <t>-65,89; 46,88</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-17,57; 17,79</t>
+          <t>-78,68; 5,04</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -693,17 +693,17 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-22,58; 51,81</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-31,92; 18,4</t>
+          <t>-76,49; 135,95</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-27,6; 35,12</t>
+          <t>-84,48; 6,45</t>
         </is>
       </c>
     </row>
@@ -810,7 +810,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>10/50</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -825,17 +825,17 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>8,74</t>
+          <t>4,83</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,18</t>
+          <t>-6,39</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>7,53</t>
+          <t>-0,62</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -845,17 +845,17 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>14,11%</t>
+          <t>8,66%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>2,06%</t>
+          <t>-9,92%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>12,43%</t>
+          <t>-1,09%</t>
         </is>
       </c>
     </row>
@@ -873,17 +873,17 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-7,95; 25,01</t>
+          <t>-14,99; 22,66</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-19,41; 22,51</t>
+          <t>-22,72; 10,46</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-14,6; 25,73</t>
+          <t>-17,57; 17,79</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -893,24 +893,24 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-12,76; 46,65</t>
+          <t>-22,58; 51,81</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-29,14; 50,17</t>
+          <t>-31,92; 18,4</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-20,03; 53,26</t>
+          <t>-27,6; 35,12</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>mas de 50</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -925,17 +925,17 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,19</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-15,36</t>
+          <t>23,03</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-49,46</t>
+          <t>-11,36</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -945,17 +945,17 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>-8,83%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-21,29%</t>
+          <t>46,94%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-57,43%</t>
+          <t>-20,5%</t>
         </is>
       </c>
     </row>
@@ -973,17 +973,17 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,72; 11,97</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-65,89; 46,88</t>
+          <t>4,3; 40,65</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-78,68; 5,04</t>
+          <t>-30,13; 20,0</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -993,24 +993,24 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,77; 19,91</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-76,49; 135,95</t>
+          <t>6,88; 109,67</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-84,48; 6,45</t>
+          <t>-48,56; 49,18</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1025,17 +1025,17 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-6,19</t>
+          <t>8,74</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>23,03</t>
+          <t>1,18</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-11,36</t>
+          <t>7,53</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1045,17 +1045,17 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-8,83%</t>
+          <t>14,11%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>46,94%</t>
+          <t>2,06%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-20,5%</t>
+          <t>12,43%</t>
         </is>
       </c>
     </row>
@@ -1073,17 +1073,17 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-24,72; 11,97</t>
+          <t>-7,95; 25,01</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>4,3; 40,65</t>
+          <t>-19,41; 22,51</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-30,13; 20,0</t>
+          <t>-14,6; 25,73</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1093,17 +1093,17 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-31,77; 19,91</t>
+          <t>-12,76; 46,65</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>6,88; 109,67</t>
+          <t>-29,14; 50,17</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-48,56; 49,18</t>
+          <t>-20,03; 53,26</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP16A01-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/IP16A01-Habitat-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -678,7 +678,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-65,89; 46,88</t>
+          <t>-70,12; 52,7</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -698,7 +698,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-76,49; 135,95</t>
+          <t>-76,26; 142,74</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -773,17 +773,17 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-13,45; 30,93</t>
+          <t>-12,13; 29,17</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-5,37; 48,36</t>
+          <t>-6,53; 44,22</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-15,41; 33,3</t>
+          <t>-14,28; 35,08</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -793,17 +793,17 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-19,52; 63,14</t>
+          <t>-17,4; 60,54</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-9,23; 219,42</t>
+          <t>-13,16; 189,28</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-19,81; 67,46</t>
+          <t>-18,06; 69,74</t>
         </is>
       </c>
     </row>
@@ -873,17 +873,17 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-14,99; 22,66</t>
+          <t>-13,58; 22,2</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-22,72; 10,46</t>
+          <t>-24,91; 10,74</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-17,57; 17,79</t>
+          <t>-18,15; 17,59</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -893,17 +893,17 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-22,58; 51,81</t>
+          <t>-21,03; 49,81</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-31,92; 18,4</t>
+          <t>-34,55; 18,61</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-27,6; 35,12</t>
+          <t>-28,2; 36,0</t>
         </is>
       </c>
     </row>
@@ -973,17 +973,17 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-24,72; 11,97</t>
+          <t>-22,2; 12,08</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,3; 40,65</t>
+          <t>2,45; 41,94</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-30,13; 20,0</t>
+          <t>-30,54; 16,77</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -993,17 +993,17 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-31,77; 19,91</t>
+          <t>-29,39; 19,11</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>6,88; 109,67</t>
+          <t>4,77; 119,05</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-48,56; 49,18</t>
+          <t>-49,53; 41,94</t>
         </is>
       </c>
     </row>
@@ -1073,17 +1073,17 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-7,95; 25,01</t>
+          <t>-9,73; 25,9</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-19,41; 22,51</t>
+          <t>-19,76; 21,44</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-14,6; 25,73</t>
+          <t>-11,99; 26,28</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1093,17 +1093,17 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-12,76; 46,65</t>
+          <t>-13,85; 50,3</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-29,14; 50,17</t>
+          <t>-29,37; 44,41</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-20,03; 53,26</t>
+          <t>-16,83; 53,85</t>
         </is>
       </c>
     </row>
@@ -1173,17 +1173,17 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-4,42; 14,36</t>
+          <t>-4,31; 13,85</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-3,41; 17,0</t>
+          <t>-3,31; 16,2</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-14,03; 7,97</t>
+          <t>-13,3; 8,24</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1193,17 +1193,24 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-6,48; 25,25</t>
+          <t>-6,5; 24,06</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-5,76; 33,29</t>
+          <t>-5,8; 32,92</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-21,82; 14,84</t>
+          <t>-20,82; 15,5</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP16A01-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/IP16A01-Habitat-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -678,12 +678,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-70,12; 52,7</t>
+          <t>-69,15; 55,33</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-78,68; 5,04</t>
+          <t>-82,35; -5,97</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -698,19 +698,19 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-76,26; 142,74</t>
+          <t>-74,04; 161,1</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-84,48; 6,45</t>
+          <t>-88,63; -11,54</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -773,17 +773,17 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-12,13; 29,17</t>
+          <t>-13,93; 30,22</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-6,53; 44,22</t>
+          <t>-8,64; 44,9</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-14,28; 35,08</t>
+          <t>-15,75; 31,04</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -793,24 +793,24 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-17,4; 60,54</t>
+          <t>-20,74; 62,65</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-13,16; 189,28</t>
+          <t>-16,34; 180,28</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-18,06; 69,74</t>
+          <t>-19,91; 62,29</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -873,17 +873,17 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-13,58; 22,2</t>
+          <t>-14,11; 22,46</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-24,91; 10,74</t>
+          <t>-23,76; 10,13</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-18,15; 17,59</t>
+          <t>-18,54; 15,8</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -893,24 +893,24 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-21,03; 49,81</t>
+          <t>-21,43; 51,53</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-34,55; 18,61</t>
+          <t>-32,63; 17,6</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-28,2; 36,0</t>
+          <t>-29,94; 31,27</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -973,17 +973,17 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-22,2; 12,08</t>
+          <t>-24,24; 10,16</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,45; 41,94</t>
+          <t>2,26; 42,49</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-30,54; 16,77</t>
+          <t>-30,11; 13,67</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -993,17 +993,17 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-29,39; 19,11</t>
+          <t>-32,26; 16,96</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>4,77; 119,05</t>
+          <t>4,69; 115,56</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-49,53; 41,94</t>
+          <t>-49,82; 29,85</t>
         </is>
       </c>
     </row>
@@ -1073,17 +1073,17 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-9,73; 25,9</t>
+          <t>-7,02; 26,63</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-19,76; 21,44</t>
+          <t>-19,29; 20,97</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-11,99; 26,28</t>
+          <t>-11,73; 26,72</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1093,17 +1093,17 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-13,85; 50,3</t>
+          <t>-9,89; 49,74</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-29,37; 44,41</t>
+          <t>-29,54; 46,52</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-16,83; 53,85</t>
+          <t>-17,19; 55,03</t>
         </is>
       </c>
     </row>
@@ -1173,17 +1173,17 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-4,31; 13,85</t>
+          <t>-5,14; 14,4</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-3,31; 16,2</t>
+          <t>-3,31; 16,52</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-13,3; 8,24</t>
+          <t>-14,16; 7,35</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1193,17 +1193,17 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-6,5; 24,06</t>
+          <t>-7,93; 24,76</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-5,8; 32,92</t>
+          <t>-5,43; 33,61</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-20,82; 15,5</t>
+          <t>-22,64; 12,95</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP16A01-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/IP16A01-Habitat-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -625,17 +625,17 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,08</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-15,36</t>
+          <t>15,26</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-49,46</t>
+          <t>-3,97</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -645,17 +645,17 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>19,29%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-21,29%</t>
+          <t>34,87%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-57,43%</t>
+          <t>-5,7%</t>
         </is>
       </c>
     </row>
@@ -673,44 +673,44 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
+          <t>-6,12; 32,62</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>-9,6; 40,31</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>-25,76; 19,05</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-69,15; 55,33</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-82,35; -5,97</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,14; 67,14</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-74,04; 161,1</t>
+          <t>-18,1; 128,2</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-88,63; -11,54</t>
+          <t>-32,64; 34,41</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -725,17 +725,17 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>8,94</t>
+          <t>4,83</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>20,89</t>
+          <t>-6,39</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>7,67</t>
+          <t>-5,48</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -745,17 +745,17 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>15,03%</t>
+          <t>8,66%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>53,65%</t>
+          <t>-9,92%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>11,45%</t>
+          <t>-9,64%</t>
         </is>
       </c>
     </row>
@@ -773,17 +773,17 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-13,93; 30,22</t>
+          <t>-14,99; 22,66</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-8,64; 44,9</t>
+          <t>-22,72; 10,46</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-15,75; 31,04</t>
+          <t>-24,48; 14,42</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -793,24 +793,24 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-20,74; 62,65</t>
+          <t>-22,58; 51,81</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-16,34; 180,28</t>
+          <t>-31,92; 18,4</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-19,91; 62,29</t>
+          <t>-40,78; 27,48</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -825,17 +825,17 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>4,83</t>
+          <t>-6,19</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-6,39</t>
+          <t>23,03</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-0,62</t>
+          <t>1,19</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -845,17 +845,17 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>8,66%</t>
+          <t>-8,83%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-9,92%</t>
+          <t>46,94%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-1,09%</t>
+          <t>2,16%</t>
         </is>
       </c>
     </row>
@@ -873,17 +873,17 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-14,11; 22,46</t>
+          <t>-24,72; 11,97</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-23,76; 10,13</t>
+          <t>4,3; 40,65</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-18,54; 15,8</t>
+          <t>-28,68; 38,13</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -893,24 +893,24 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-21,43; 51,53</t>
+          <t>-31,77; 19,91</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-32,63; 17,6</t>
+          <t>6,88; 109,67</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-29,94; 31,27</t>
+          <t>-47,81; 99,81</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -925,17 +925,17 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-6,19</t>
+          <t>8,74</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>23,03</t>
+          <t>1,18</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-11,36</t>
+          <t>7,26</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -945,17 +945,17 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-8,83%</t>
+          <t>14,11%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>46,94%</t>
+          <t>2,06%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-20,5%</t>
+          <t>11,92%</t>
         </is>
       </c>
     </row>
@@ -973,17 +973,17 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-24,24; 10,16</t>
+          <t>-7,95; 25,01</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,26; 42,49</t>
+          <t>-19,41; 22,51</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-30,11; 13,67</t>
+          <t>-14,59; 25,6</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -993,24 +993,24 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-32,26; 16,96</t>
+          <t>-12,76; 46,65</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>4,69; 115,56</t>
+          <t>-29,14; 50,17</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-49,82; 29,85</t>
+          <t>-20,26; 53,8</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1025,17 +1025,17 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>8,74</t>
+          <t>4,83</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>1,18</t>
+          <t>6,22</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>7,53</t>
+          <t>-0,5</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1045,17 +1045,17 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>14,11%</t>
+          <t>7,74%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>2,06%</t>
+          <t>11,28%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>12,43%</t>
+          <t>-0,85%</t>
         </is>
       </c>
     </row>
@@ -1073,17 +1073,17 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-7,02; 26,63</t>
+          <t>-4,42; 14,36</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-19,29; 20,97</t>
+          <t>-3,41; 17,0</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-11,73; 26,72</t>
+          <t>-12,31; 18,19</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1093,129 +1093,29 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-9,89; 49,74</t>
+          <t>-6,48; 25,25</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-29,54; 46,52</t>
+          <t>-5,76; 33,29</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-17,19; 55,03</t>
+          <t>-19,81; 34,17</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>4,83</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>6,22</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>-3,57</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>7,74%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>11,28%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>-6,03%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-5,14; 14,4</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-3,31; 16,52</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-14,16; 7,35</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>-7,93; 24,76</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>-5,43; 33,61</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>-22,64; 12,95</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1224,7 +1124,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
